--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="404">
   <si>
     <t>Path</t>
   </si>
@@ -725,10 +725,7 @@
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.</t>
   </si>
   <si>
-    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+    <t>http://hl7.org/fhir/R4/valueset-subscriber-relationship</t>
   </si>
   <si>
     <t>C03</t>
@@ -4171,7 +4168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>207</v>
       </c>
@@ -4187,7 +4184,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
@@ -4288,7 +4285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>211</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
@@ -4586,13 +4583,11 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4634,7 +4629,7 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>42</v>
@@ -4645,7 +4640,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4668,17 +4663,17 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4727,7 +4722,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4742,19 +4737,19 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
@@ -4762,7 +4757,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4785,19 +4780,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4846,7 +4841,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>51</v>
@@ -4867,21 +4862,21 @@
         <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4889,7 +4884,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>44</v>
@@ -4904,19 +4899,19 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4953,10 +4948,10 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AB30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>42</v>
@@ -4965,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5000,7 +4995,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5115,7 +5110,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5232,11 +5227,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5258,10 +5253,10 @@
         <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>74</v>
@@ -5316,7 +5311,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5351,7 +5346,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5377,14 +5372,14 @@
         <v>183</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5412,11 +5407,11 @@
         <v>109</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5433,7 +5428,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>51</v>
@@ -5468,7 +5463,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5494,16 +5489,16 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5552,7 +5547,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -5576,18 +5571,18 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5613,14 +5608,14 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5669,7 +5664,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5693,21 +5688,21 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>42</v>
@@ -5729,19 +5724,19 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5790,7 +5785,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5825,7 +5820,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5940,7 +5935,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6057,11 +6052,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6083,10 +6078,10 @@
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>74</v>
@@ -6141,7 +6136,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6176,7 +6171,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6202,14 +6197,14 @@
         <v>183</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6237,11 +6232,11 @@
         <v>109</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
       </c>
@@ -6258,7 +6253,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6293,7 +6288,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6408,7 +6403,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6525,7 +6520,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6551,16 +6546,16 @@
         <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6609,7 +6604,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6627,16 +6622,16 @@
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>42</v>
@@ -6644,7 +6639,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6759,7 +6754,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6876,7 +6871,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6902,16 +6897,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6960,7 +6955,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -6978,16 +6973,16 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>42</v>
@@ -6995,7 +6990,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7021,13 +7016,13 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7077,7 +7072,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7095,16 +7090,16 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>42</v>
@@ -7112,7 +7107,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7138,14 +7133,14 @@
         <v>127</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7155,46 +7150,46 @@
         <v>42</v>
       </c>
       <c r="R49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7212,16 +7207,16 @@
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>42</v>
@@ -7229,7 +7224,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7255,14 +7250,14 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7311,7 +7306,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7329,16 +7324,16 @@
         <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>42</v>
@@ -7346,7 +7341,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7369,19 +7364,19 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7430,7 +7425,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7448,16 +7443,16 @@
         <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>42</v>
@@ -7465,7 +7460,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7491,16 +7486,16 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7549,7 +7544,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7567,16 +7562,16 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>42</v>
@@ -7584,7 +7579,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7610,16 +7605,16 @@
         <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7668,7 +7663,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>51</v>
@@ -7692,18 +7687,18 @@
         <v>42</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7729,14 +7724,14 @@
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7785,7 +7780,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7809,21 +7804,21 @@
         <v>42</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>42</v>
@@ -7845,19 +7840,19 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7906,7 +7901,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7941,7 +7936,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8056,7 +8051,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8173,11 +8168,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8199,10 +8194,10 @@
         <v>71</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>74</v>
@@ -8257,7 +8252,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8292,7 +8287,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8318,14 +8313,14 @@
         <v>183</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8353,11 +8348,11 @@
         <v>109</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
       </c>
@@ -8374,7 +8369,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>51</v>
@@ -8409,7 +8404,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8524,7 +8519,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8641,7 +8636,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8667,16 +8662,16 @@
         <v>105</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8725,7 +8720,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8743,16 +8738,16 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>42</v>
@@ -8760,7 +8755,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8875,7 +8870,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8992,7 +8987,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9018,16 +9013,16 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -9076,7 +9071,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9094,16 +9089,16 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>42</v>
@@ -9111,7 +9106,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9137,13 +9132,13 @@
         <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9193,7 +9188,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9211,16 +9206,16 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>42</v>
@@ -9228,7 +9223,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9254,14 +9249,14 @@
         <v>127</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -9271,7 +9266,7 @@
         <v>42</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>42</v>
@@ -9310,7 +9305,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9328,16 +9323,16 @@
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>42</v>
@@ -9345,7 +9340,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9371,14 +9366,14 @@
         <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -9427,7 +9422,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9445,16 +9440,16 @@
         <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>42</v>
@@ -9462,7 +9457,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9485,19 +9480,19 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9546,7 +9541,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9564,16 +9559,16 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>42</v>
@@ -9581,7 +9576,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9607,16 +9602,16 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9665,7 +9660,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9683,16 +9678,16 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>42</v>
@@ -9700,7 +9695,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9726,16 +9721,16 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9784,7 +9779,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>51</v>
@@ -9808,18 +9803,18 @@
         <v>42</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9845,14 +9840,14 @@
         <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9901,7 +9896,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -9925,18 +9920,18 @@
         <v>42</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9959,17 +9954,17 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -10018,7 +10013,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10053,7 +10048,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10079,14 +10074,14 @@
         <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
@@ -10135,7 +10130,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10159,7 +10154,7 @@
         <v>42</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>42</v>
@@ -10170,11 +10165,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10193,19 +10188,19 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -10254,7 +10249,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10289,7 +10284,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10404,7 +10399,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10521,11 +10516,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10547,10 +10542,10 @@
         <v>71</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>74</v>
@@ -10605,7 +10600,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10640,7 +10635,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10666,16 +10661,16 @@
         <v>183</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -10703,11 +10698,11 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
       </c>
@@ -10724,7 +10719,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -10759,7 +10754,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10782,19 +10777,19 @@
         <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10843,7 +10838,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>51</v>
@@ -10867,18 +10862,18 @@
         <v>42</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10901,17 +10896,17 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -10960,7 +10955,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -10995,7 +10990,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11110,7 +11105,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11227,11 +11222,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11253,10 +11248,10 @@
         <v>71</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>74</v>
@@ -11311,7 +11306,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11346,7 +11341,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11372,14 +11367,14 @@
         <v>183</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -11407,11 +11402,11 @@
         <v>117</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>42</v>
       </c>
@@ -11428,7 +11423,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>51</v>
@@ -11463,7 +11458,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11486,17 +11481,17 @@
         <v>52</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -11545,7 +11540,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -11580,7 +11575,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11603,19 +11598,19 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -11664,7 +11659,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -11699,7 +11694,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11722,17 +11717,17 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
@@ -11781,7 +11776,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -11808,7 +11803,7 @@
         <v>198</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>200</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -725,7 +725,7 @@
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/R4/valueset-subscriber-relationship</t>
+    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
   </si>
   <si>
     <t>C03</t>
@@ -2286,7 +2286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>86</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>42</v>
@@ -4168,7 +4168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>207</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
@@ -4285,7 +4285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>211</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
@@ -4521,7 +4521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>223</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -813,7 +813,7 @@
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type.coding.code}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -1446,7 +1446,7 @@
     <col min="24" max="24" width="144.8984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.83984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>51</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="347">
   <si>
     <t>Path</t>
   </si>
@@ -900,338 +900,181 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Coverage.class.type.id</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.extension</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.id</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.coding.userSelected</t>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+      &lt;code value="group"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+      &lt;code value="plan"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Coverage.order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Relative order of the coverage</t>
+  </si>
+  <si>
+    <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.</t>
+  </si>
+  <si>
+    <t>Used in managing the coordination of benefits.</t>
+  </si>
+  <si>
+    <t>Coverage.network</t>
+  </si>
+  <si>
+    <t>Insurer network</t>
+  </si>
+  <si>
+    <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.</t>
+  </si>
+  <si>
+    <t>Used in referral for treatment and in claims processing.</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary</t>
+  </si>
+  <si>
+    <t>CoPay
+DeductibleExceptions</t>
+  </si>
+  <si>
+    <t>Patient payments for services/products</t>
+  </si>
+  <si>
+    <t>A suite of codes indicating the cost category and associated amount which have been detailed in the policy and may have been  included on the health card.</t>
+  </si>
+  <si>
+    <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.</t>
+  </si>
+  <si>
+    <t>Required by providers to manage financial transaction with the patient.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.id</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.type</t>
+  </si>
+  <si>
+    <t>Cost category</t>
+  </si>
+  <si>
+    <t>The category of patient centric costs associated with treatment.</t>
+  </si>
+  <si>
+    <t>For example visit, specialist visits, emergency, inpatient care, etc.</t>
+  </si>
+  <si>
+    <t>Needed to identify the category associated with the amount for the patient.</t>
+  </si>
+  <si>
+    <t>The types of services to which patient copayments are specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity {SimpleQuantity}
+Money</t>
+  </si>
+  <si>
+    <t>The amount or percentage due from the beneficiary</t>
+  </si>
+  <si>
+    <t>The amount due from the patient for the cost category.</t>
+  </si>
+  <si>
+    <t>Amount may be expressed as a percentage of the service/product cost or a fixed amount of currency.</t>
+  </si>
+  <si>
+    <t>Needed to identify the amount for the patient associated with the category.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception</t>
+  </si>
+  <si>
+    <t>Exceptions for patient payments</t>
+  </si>
+  <si>
+    <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.id</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.extension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.type</t>
+  </si>
+  <si>
+    <t>Exception category</t>
+  </si>
+  <si>
+    <t>The code for the specific exception.</t>
+  </si>
+  <si>
+    <t>Needed to identify the exception associated with the amount for the patient.</t>
+  </si>
+  <si>
+    <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.period</t>
+  </si>
+  <si>
+    <t>The effective period of the exception</t>
+  </si>
+  <si>
+    <t>The timeframe during when the exception is in force.</t>
+  </si>
+  <si>
+    <t>Needed to identify the applicable timeframe for the exception for the correct calculation of patient costs.</t>
+  </si>
+  <si>
+    <t>Coverage.subrogation</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Coverage.class.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>Coverage.order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Relative order of the coverage</t>
-  </si>
-  <si>
-    <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.</t>
-  </si>
-  <si>
-    <t>Used in managing the coordination of benefits.</t>
-  </si>
-  <si>
-    <t>Coverage.network</t>
-  </si>
-  <si>
-    <t>Insurer network</t>
-  </si>
-  <si>
-    <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.</t>
-  </si>
-  <si>
-    <t>Used in referral for treatment and in claims processing.</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary</t>
-  </si>
-  <si>
-    <t>CoPay
-DeductibleExceptions</t>
-  </si>
-  <si>
-    <t>Patient payments for services/products</t>
-  </si>
-  <si>
-    <t>A suite of codes indicating the cost category and associated amount which have been detailed in the policy and may have been  included on the health card.</t>
-  </si>
-  <si>
-    <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.</t>
-  </si>
-  <si>
-    <t>Required by providers to manage financial transaction with the patient.</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.id</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.extension</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.modifierExtension</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.type</t>
-  </si>
-  <si>
-    <t>Cost category</t>
-  </si>
-  <si>
-    <t>The category of patient centric costs associated with treatment.</t>
-  </si>
-  <si>
-    <t>For example visit, specialist visits, emergency, inpatient care, etc.</t>
-  </si>
-  <si>
-    <t>Needed to identify the category associated with the amount for the patient.</t>
-  </si>
-  <si>
-    <t>The types of services to which patient copayments are specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity {SimpleQuantity}
-Money</t>
-  </si>
-  <si>
-    <t>The amount or percentage due from the beneficiary</t>
-  </si>
-  <si>
-    <t>The amount due from the patient for the cost category.</t>
-  </si>
-  <si>
-    <t>Amount may be expressed as a percentage of the service/product cost or a fixed amount of currency.</t>
-  </si>
-  <si>
-    <t>Needed to identify the amount for the patient associated with the category.</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.exception</t>
-  </si>
-  <si>
-    <t>Exceptions for patient payments</t>
-  </si>
-  <si>
-    <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.exception.id</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.exception.extension</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.exception.modifierExtension</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.exception.type</t>
-  </si>
-  <si>
-    <t>Exception category</t>
-  </si>
-  <si>
-    <t>The code for the specific exception.</t>
-  </si>
-  <si>
-    <t>Needed to identify the exception associated with the amount for the patient.</t>
-  </si>
-  <si>
-    <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
-  </si>
-  <si>
-    <t>Coverage.costToBeneficiary.exception.period</t>
-  </si>
-  <si>
-    <t>The effective period of the exception</t>
-  </si>
-  <si>
-    <t>The timeframe during when the exception is in force.</t>
-  </si>
-  <si>
-    <t>Needed to identify the applicable timeframe for the exception for the correct calculation of patient costs.</t>
-  </si>
-  <si>
-    <t>Coverage.subrogation</t>
   </si>
   <si>
     <t>Reimbursement to insurer</t>
@@ -1411,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO88"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1456,7 +1299,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="59.4453125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="51.26953125" customWidth="true" bestFit="true"/>
@@ -5746,7 +5589,7 @@
         <v>42</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>42</v>
@@ -6288,7 +6131,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6296,7 +6139,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6308,19 +6151,23 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -6368,10 +6215,10 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6380,41 +6227,41 @@
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6423,21 +6270,21 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6473,65 +6320,67 @@
         <v>42</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6540,22 +6389,22 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6565,7 +6414,7 @@
         <v>42</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>42</v>
@@ -6604,7 +6453,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6622,7 +6471,7 @@
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6631,7 +6480,7 @@
         <v>42</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>42</v>
@@ -6639,7 +6488,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6754,7 +6603,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6824,16 +6673,16 @@
         <v>42</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>78</v>
@@ -6871,42 +6720,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6955,25 +6804,25 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6982,7 +6831,7 @@
         <v>42</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>42</v>
@@ -6990,7 +6839,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6998,7 +6847,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>51</v>
@@ -7013,18 +6862,18 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -7048,13 +6897,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -7072,10 +6921,10 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>51</v>
@@ -7090,7 +6939,7 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -7099,7 +6948,7 @@
         <v>42</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>42</v>
@@ -7107,7 +6956,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7115,7 +6964,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -7130,17 +6979,19 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7150,7 +7001,7 @@
         <v>42</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>42</v>
@@ -7189,10 +7040,10 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>51</v>
@@ -7207,24 +7058,24 @@
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7250,14 +7101,14 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7306,7 +7157,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7324,24 +7175,24 @@
         <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7364,19 +7215,17 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7425,7 +7274,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7443,7 +7292,7 @@
         <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7452,7 +7301,7 @@
         <v>42</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>42</v>
@@ -7460,7 +7309,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7486,16 +7335,14 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7544,7 +7391,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7562,16 +7409,16 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>42</v>
@@ -7579,18 +7426,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7599,22 +7446,22 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>53</v>
+        <v>251</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7663,13 +7510,13 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
@@ -7687,18 +7534,18 @@
         <v>42</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7718,21 +7565,19 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7780,7 +7625,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>279</v>
+        <v>67</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7792,43 +7637,41 @@
         <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7840,20 +7683,18 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7901,7 +7742,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7913,13 +7754,13 @@
         <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7936,39 +7777,43 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -8016,25 +7861,25 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -8051,18 +7896,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -8071,21 +7916,23 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>73</v>
+        <v>308</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -8109,13 +7956,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -8133,25 +7980,25 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -8168,42 +8015,42 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8252,42 +8099,42 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8295,10 +8142,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -8307,20 +8154,20 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8345,13 +8192,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -8369,13 +8216,13 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
@@ -8404,7 +8251,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8519,7 +8366,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8589,16 +8436,16 @@
         <v>42</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>78</v>
@@ -8636,11 +8483,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8653,25 +8500,25 @@
         <v>42</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8720,7 +8567,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8732,13 +8579,13 @@
         <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8747,7 +8594,7 @@
         <v>42</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>42</v>
@@ -8755,7 +8602,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8763,7 +8610,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
@@ -8775,19 +8622,21 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8811,13 +8660,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8835,10 +8684,10 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>67</v>
+        <v>325</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>51</v>
@@ -8847,13 +8696,13 @@
         <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8870,18 +8719,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8890,21 +8739,21 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8940,37 +8789,37 @@
         <v>42</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8987,7 +8836,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9007,22 +8856,22 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -9071,7 +8920,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9089,7 +8938,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -9098,7 +8947,7 @@
         <v>42</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>42</v>
@@ -9106,7 +8955,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9117,7 +8966,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -9126,21 +8975,21 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -9188,13 +9037,13 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
@@ -9206,2611 +9055,23 @@
         <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>309</v>
+        <v>68</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AO88" t="s" s="2">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO88">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11820,7 +9081,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -900,27 +900,23 @@
     <t>Group</t>
   </si>
   <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-      &lt;code value="group"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
-&lt;/valueIdentifier&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+    &lt;code value="group"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Plan</t>
   </si>
   <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-      &lt;code value="plan"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
-&lt;/valueIdentifier&gt;</t>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+    &lt;code value="plan"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Coverage.order</t>
@@ -5589,7 +5585,7 @@
         <v>42</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>42</v>
@@ -6057,7 +6053,7 @@
         <v>42</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>42</v>
@@ -6414,7 +6410,7 @@
         <v>42</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>42</v>
@@ -6882,7 +6878,7 @@
         <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -813,7 +813,7 @@
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -813,7 +813,7 @@
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -900,23 +900,27 @@
     <t>Group</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-    &lt;code value="group"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+      &lt;code value="group"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>Plan</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-    &lt;code value="plan"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+      &lt;code value="plan"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+&lt;/valueIdentifier&gt;</t>
   </si>
   <si>
     <t>Coverage.order</t>
@@ -5585,7 +5589,7 @@
         <v>42</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>42</v>
@@ -6053,7 +6057,7 @@
         <v>42</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>42</v>
@@ -6410,7 +6414,7 @@
         <v>42</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>42</v>
@@ -6878,7 +6882,7 @@
         <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -813,7 +813,7 @@
     <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>
@@ -897,30 +897,26 @@
     <t>Used to provide a meaningful description in correspondence to the patient.</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-      &lt;code value="group"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
-&lt;/valueIdentifier&gt;</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
-  &lt;type&gt;
-    &lt;coding&gt;
-      &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
-      &lt;code value="plan"/&gt;
-    &lt;/coding&gt;
-  &lt;/type&gt;
-&lt;/valueIdentifier&gt;</t>
+    <t>group</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+    &lt;code value="group"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+    &lt;code value="plan"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Coverage.order</t>
@@ -5589,7 +5585,7 @@
         <v>42</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>42</v>
@@ -6057,7 +6053,7 @@
         <v>42</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>42</v>
@@ -6414,7 +6410,7 @@
         <v>42</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>42</v>
@@ -6882,7 +6878,7 @@
         <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="351">
   <si>
     <t>Path</t>
   </si>
@@ -554,7 +554,7 @@
     <t>Coverage.status</t>
   </si>
   <si>
-    <t>active | cancelled | draft | entered-in-error</t>
+    <t>Identfies the status of the coverage information (default: active) (133 )</t>
   </si>
   <si>
     <t>The status of the resource instance.</t>
@@ -591,7 +591,7 @@
 </t>
   </si>
   <si>
-    <t>Coverage category such as medical or accident</t>
+    <t>Identifies if the coverage is PPO, HMO, POS, etc.   (3 )</t>
   </si>
   <si>
     <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
@@ -665,7 +665,7 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t>ID assigned to the subscriber</t>
+    <t>Identifies the subscriber identification (132 )</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.</t>
@@ -713,7 +713,7 @@
     <t>Coverage.relationship</t>
   </si>
   <si>
-    <t>Beneficiary relationship to the subscriber</t>
+    <t>Relationship of the member to the person insured (subscriber). (72 )</t>
   </si>
   <si>
     <t>The relationship of beneficiary (patient) to the subscriber.</t>
@@ -738,7 +738,7 @@
 </t>
   </si>
   <si>
-    <t>Coverage start and end dates</t>
+    <t>Date that the contract was terminated or coverage changed (75 )</t>
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
@@ -766,7 +766,7 @@
 </t>
   </si>
   <si>
-    <t>Issuer of the policy</t>
+    <t>Issuer of the Policy (2 )</t>
   </si>
   <si>
     <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.</t>
@@ -908,6 +908,12 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>Employer account identifier (134 )</t>
+  </si>
+  <si>
+    <t>Name of the Employer Account (135 )</t>
+  </si>
+  <si>
     <t>plan</t>
   </si>
   <si>
@@ -917,6 +923,12 @@
     &lt;code value="plan"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Business concept used by a health plan to describe its benefit offerings (154 )</t>
+  </si>
+  <si>
+    <t>Name of the health plan benefit offering assigned to the Plan Identfier (155 )</t>
   </si>
   <si>
     <t>Coverage.order</t>
@@ -1269,7 +1281,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6153,7 +6165,7 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>273</v>
@@ -6272,7 +6284,7 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>281</v>
@@ -6366,7 +6378,7 @@
         <v>249</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>42</v>
@@ -6878,7 +6890,7 @@
         <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>42</v>
@@ -6978,7 +6990,7 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>273</v>
@@ -7097,7 +7109,7 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>281</v>
@@ -7188,7 +7200,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7211,17 +7223,17 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7270,7 +7282,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7305,7 +7317,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7331,14 +7343,14 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7387,7 +7399,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7411,7 +7423,7 @@
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>42</v>
@@ -7422,11 +7434,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7448,16 +7460,16 @@
         <v>251</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7506,7 +7518,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7541,7 +7553,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7656,7 +7668,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7773,7 +7785,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7892,7 +7904,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7918,16 +7930,16 @@
         <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7955,10 +7967,10 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7976,7 +7988,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8011,7 +8023,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8034,19 +8046,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8095,7 +8107,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>51</v>
@@ -8130,7 +8142,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8156,14 +8168,14 @@
         <v>251</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8212,7 +8224,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8247,7 +8259,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8362,7 +8374,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8479,7 +8491,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8598,7 +8610,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8624,14 +8636,14 @@
         <v>183</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8659,28 +8671,28 @@
         <v>117</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>51</v>
@@ -8715,7 +8727,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8741,14 +8753,14 @@
         <v>231</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8797,7 +8809,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -8832,7 +8844,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8855,19 +8867,19 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8916,7 +8928,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -8951,7 +8963,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8974,17 +8986,17 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -9033,7 +9045,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9060,7 +9072,7 @@
         <v>198</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>200</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -3664,7 +3664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>182</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -4489,7 +4489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>230</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>42</v>
@@ -5312,7 +5312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>271</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -554,7 +554,7 @@
     <t>Coverage.status</t>
   </si>
   <si>
-    <t>Identfies the status of the coverage information (default: active) (133 )</t>
+    <t>Identfies the status of the coverage information (default: active) (133)</t>
   </si>
   <si>
     <t>The status of the resource instance.</t>
@@ -591,7 +591,7 @@
 </t>
   </si>
   <si>
-    <t>Identifies if the coverage is PPO, HMO, POS, etc.   (3 )</t>
+    <t>Identifies if the coverage is PPO, HMO, POS, etc.   (3)</t>
   </si>
   <si>
     <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
@@ -665,7 +665,7 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t>Identifies the subscriber identification (132 )</t>
+    <t>Identifies the subscriber identification (132)</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.</t>
@@ -713,7 +713,7 @@
     <t>Coverage.relationship</t>
   </si>
   <si>
-    <t>Relationship of the member to the person insured (subscriber). (72 )</t>
+    <t>Relationship of the member to the person insured (subscriber). (72)</t>
   </si>
   <si>
     <t>The relationship of beneficiary (patient) to the subscriber.</t>
@@ -738,7 +738,7 @@
 </t>
   </si>
   <si>
-    <t>Date that the contract was terminated or coverage changed (75 )</t>
+    <t>Date that the contract was terminated or coverage changed (75)</t>
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
@@ -766,7 +766,7 @@
 </t>
   </si>
   <si>
-    <t>Issuer of the Policy (2 )</t>
+    <t>Issuer of the Policy (2)</t>
   </si>
   <si>
     <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.</t>
@@ -908,10 +908,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Employer account identifier (134 )</t>
-  </si>
-  <si>
-    <t>Name of the Employer Account (135 )</t>
+    <t>Employer account identifier (134)</t>
+  </si>
+  <si>
+    <t>Name of the Employer Account (135)</t>
   </si>
   <si>
     <t>plan</t>
@@ -925,10 +925,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Business concept used by a health plan to describe its benefit offerings (154 )</t>
-  </si>
-  <si>
-    <t>Name of the health plan benefit offering assigned to the Plan Identfier (155 )</t>
+    <t>Business concept used by a health plan to describe its benefit offerings (154)</t>
+  </si>
+  <si>
+    <t>Name of the health plan benefit offering assigned to the Plan Identfier (155)</t>
   </si>
   <si>
     <t>Coverage.order</t>
@@ -1281,7 +1281,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-Coverage.xlsx
+++ b/StructureDefinition-CARIN-BB-Coverage.xlsx
@@ -665,7 +665,7 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t>Identifies the subscriber identification (132)</t>
+    <t>The identifier assigned by the Payer on the subscriber's ID card. (132)</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.</t>
@@ -5312,7 +5312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>271</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
@@ -5431,7 +5431,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>279</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>42</v>
@@ -6137,7 +6137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>271</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
@@ -6256,7 +6256,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>279</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
@@ -6962,7 +6962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>271</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>42</v>
@@ -7081,7 +7081,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>279</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>42</v>
